--- a/DataMappingTool/src/documents/ECCOK_Data Mapping_v0.03.xlsx
+++ b/DataMappingTool/src/documents/ECCOK_Data Mapping_v0.03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1455" windowWidth="15600" windowHeight="6840" tabRatio="637" activeTab="5"/>
+    <workbookView xWindow="720" yWindow="1455" windowWidth="15600" windowHeight="6840" tabRatio="637" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Other_Objects" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATALOAD!$A$2:$T$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATALOAD!$A$2:$T$600</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Misc-System'!$A$2:$T$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PAYMENT_TBLS!$A$2:$T$248</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">STATIC_TBLS!$A$2:$U$2</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13871" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13869" uniqueCount="849">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2433,9 +2433,6 @@
     <t>v0.02,add this filed to new table, it will be always 'OK' from OK's database.</t>
   </si>
   <si>
-    <t>v0.02,can be removed, since it always be '12/31/9999'.</t>
-  </si>
-  <si>
     <t>v0.02, can be migrated to insert_date.</t>
   </si>
   <si>
@@ -2578,6 +2575,9 @@
   </si>
   <si>
     <t>v0.03, not empty from production DB, it should be remained.</t>
+  </si>
+  <si>
+    <t>v0.03, migrate the end_date to mod_date.</t>
   </si>
 </sst>
 </file>
@@ -3055,154 +3055,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -3801,7 +3654,7 @@
         <v>792</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3809,7 +3662,7 @@
         <v>781</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +4690,7 @@
         <v>Yes</v>
       </c>
       <c r="S19" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="T19" s="23"/>
     </row>
@@ -4962,7 +4815,7 @@
         <v>Yes</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -5616,7 +5469,7 @@
         <v>Yes</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -5679,7 +5532,7 @@
         <v>Yes</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -5742,7 +5595,7 @@
         <v>Yes</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -5805,7 +5658,7 @@
         <v>Yes</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -5868,7 +5721,7 @@
         <v>Yes</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -6084,7 +5937,7 @@
         <v>Yes</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -6147,7 +6000,7 @@
         <v>Yes</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -6210,7 +6063,7 @@
         <v>Yes</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -7544,7 +7397,7 @@
         <v>Yes</v>
       </c>
       <c r="S70" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="T70" s="23"/>
     </row>
@@ -8396,7 +8249,7 @@
         <v>Yes</v>
       </c>
       <c r="S87" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="T87" s="23"/>
     </row>
@@ -8722,7 +8575,7 @@
         <v>Yes</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -9870,7 +9723,7 @@
         <v>Yes</v>
       </c>
       <c r="S118" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T118" s="23"/>
     </row>
@@ -10809,7 +10662,7 @@
         <v>Yes</v>
       </c>
       <c r="S137" s="53" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="T137" s="72"/>
     </row>
@@ -10863,7 +10716,7 @@
         <v>Yes</v>
       </c>
       <c r="S138" s="53" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="T138" s="72"/>
     </row>
@@ -11163,7 +11016,7 @@
         <v>Yes</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
@@ -11674,7 +11527,7 @@
         <v>Yes</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
@@ -13742,7 +13595,7 @@
         <v>Yes</v>
       </c>
       <c r="S196" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
@@ -14273,7 +14126,7 @@
         <v>Yes</v>
       </c>
       <c r="S206" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="T206" s="23"/>
     </row>
@@ -14456,7 +14309,7 @@
         <v>Yes</v>
       </c>
       <c r="S212" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
@@ -14851,7 +14704,7 @@
         <v>Yes</v>
       </c>
       <c r="S221" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
@@ -17394,7 +17247,7 @@
         <v>129</v>
       </c>
       <c r="M274" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="N274" s="20">
         <v>30</v>
@@ -17416,7 +17269,7 @@
         <v>Yes</v>
       </c>
       <c r="S274" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="275" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -17624,12 +17477,12 @@
     <mergeCell ref="O1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="O1 O2:R1048576">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M271:N272">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17643,12 +17496,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:T601"/>
+  <dimension ref="A1:T600"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
-      <selection pane="bottomLeft" activeCell="A154" sqref="A154"/>
+      <selection pane="bottomLeft" activeCell="A593" sqref="A593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19057,7 +18910,7 @@
         <v>Yes</v>
       </c>
       <c r="S25" s="23" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -19994,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E45" s="66"/>
       <c r="F45" s="66"/>
@@ -20014,7 +19867,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O45" s="20" t="str">
         <f t="shared" si="1"/>
@@ -20198,7 +20051,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
@@ -20218,7 +20071,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O49" s="20" t="str">
         <f t="shared" si="1"/>
@@ -20351,7 +20204,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
@@ -20371,7 +20224,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O52" s="20" t="str">
         <f t="shared" si="1"/>
@@ -21167,7 +21020,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E68" s="66"/>
       <c r="F68" s="66"/>
@@ -21187,7 +21040,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O68" s="20" t="str">
         <f t="shared" ref="O68:O131" si="5">IF(A68=K68,"Yes","No")</f>
@@ -21218,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
@@ -21238,7 +21091,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O69" s="20" t="str">
         <f t="shared" si="5"/>
@@ -21269,7 +21122,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
@@ -21289,7 +21142,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O70" s="20" t="str">
         <f t="shared" si="5"/>
@@ -21320,7 +21173,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
@@ -21340,7 +21193,7 @@
         <v>0</v>
       </c>
       <c r="N71" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O71" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22578,7 +22431,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>777</v>
@@ -22593,7 +22446,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J95" s="20" t="s">
         <v>777</v>
@@ -22608,7 +22461,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O95" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22639,7 +22492,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>777</v>
@@ -22654,7 +22507,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J96" s="20" t="s">
         <v>777</v>
@@ -22669,7 +22522,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O96" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22709,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J97" s="20" t="s">
         <v>777</v>
@@ -22724,7 +22577,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O97" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22764,7 +22617,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J98" s="20" t="s">
         <v>777</v>
@@ -22779,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="N98" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O98" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22819,7 +22672,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J99" s="20" t="s">
         <v>777</v>
@@ -22834,7 +22687,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O99" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22874,7 +22727,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J100" s="20" t="s">
         <v>777</v>
@@ -22889,7 +22742,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O100" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22933,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J101" s="20" t="s">
         <v>777</v>
@@ -22948,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="N101" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O101" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22992,7 +22845,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J102" s="20" t="s">
         <v>777</v>
@@ -23007,7 +22860,7 @@
         <v>0</v>
       </c>
       <c r="N102" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O102" s="20" t="str">
         <f t="shared" si="5"/>
@@ -23442,7 +23295,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J110" s="20" t="s">
         <v>777</v>
@@ -23474,7 +23327,7 @@
         <v>Yes</v>
       </c>
       <c r="S110" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="111" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -23527,7 +23380,7 @@
         <v>Yes</v>
       </c>
       <c r="S111" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -24639,7 +24492,7 @@
         <v>0</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>777</v>
@@ -24654,7 +24507,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>777</v>
@@ -24698,7 +24551,7 @@
         <v>0</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>777</v>
@@ -24713,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>777</v>
@@ -24766,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>777</v>
@@ -24819,7 +24672,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>777</v>
@@ -24872,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>777</v>
@@ -24925,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>777</v>
@@ -24982,7 +24835,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>777</v>
@@ -25039,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>777</v>
@@ -25487,7 +25340,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>777</v>
@@ -25888,7 +25741,7 @@
         <v>Yes</v>
       </c>
       <c r="S154" s="23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="155" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -26290,7 +26143,7 @@
         <v>Yes</v>
       </c>
       <c r="S162" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -26343,7 +26196,7 @@
         <v>Yes</v>
       </c>
       <c r="S163" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -26366,7 +26219,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>777</v>
@@ -26398,7 +26251,7 @@
         <v>Yes</v>
       </c>
       <c r="S164" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
@@ -32563,7 +32416,7 @@
         <v>Yes</v>
       </c>
       <c r="S277" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="278" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -32876,7 +32729,7 @@
         <v>0</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -32896,7 +32749,7 @@
         <v>0</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O285" s="20" t="str">
         <f t="shared" si="17"/>
@@ -32927,7 +32780,7 @@
         <v>0</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -32947,7 +32800,7 @@
         <v>0</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O286" s="20" t="str">
         <f t="shared" si="17"/>
@@ -32978,7 +32831,7 @@
         <v>0</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -32998,7 +32851,7 @@
         <v>0</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O287" s="20" t="str">
         <f t="shared" si="17"/>
@@ -33706,7 +33559,7 @@
         <v>Yes</v>
       </c>
       <c r="S300" s="69" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.25">
@@ -34183,7 +34036,7 @@
         <v>Yes</v>
       </c>
       <c r="S309" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.25">
@@ -37284,7 +37137,7 @@
         <v>Yes</v>
       </c>
       <c r="S366" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="367" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -39378,7 +39231,7 @@
         <v>0</v>
       </c>
       <c r="D405" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E405" s="20"/>
       <c r="F405" s="20"/>
@@ -39398,7 +39251,7 @@
         <v>0</v>
       </c>
       <c r="N405" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O405" s="20" t="str">
         <f t="shared" si="25"/>
@@ -39582,7 +39435,7 @@
         <v>0</v>
       </c>
       <c r="D409" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E409" s="20"/>
       <c r="F409" s="20"/>
@@ -39602,7 +39455,7 @@
         <v>0</v>
       </c>
       <c r="N409" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O409" s="20" t="str">
         <f t="shared" si="25"/>
@@ -39735,7 +39588,7 @@
         <v>0</v>
       </c>
       <c r="D412" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E412" s="20"/>
       <c r="F412" s="20"/>
@@ -39755,7 +39608,7 @@
         <v>0</v>
       </c>
       <c r="N412" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O412" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40551,7 +40404,7 @@
         <v>0</v>
       </c>
       <c r="D428" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E428" s="20"/>
       <c r="F428" s="20"/>
@@ -40571,7 +40424,7 @@
         <v>0</v>
       </c>
       <c r="N428" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O428" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40602,7 +40455,7 @@
         <v>0</v>
       </c>
       <c r="D429" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E429" s="20"/>
       <c r="F429" s="20"/>
@@ -40622,7 +40475,7 @@
         <v>0</v>
       </c>
       <c r="N429" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O429" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40653,7 +40506,7 @@
         <v>0</v>
       </c>
       <c r="D430" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E430" s="20"/>
       <c r="F430" s="20"/>
@@ -40673,7 +40526,7 @@
         <v>0</v>
       </c>
       <c r="N430" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O430" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40704,7 +40557,7 @@
         <v>0</v>
       </c>
       <c r="D431" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E431" s="20"/>
       <c r="F431" s="20"/>
@@ -40724,7 +40577,7 @@
         <v>0</v>
       </c>
       <c r="N431" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O431" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40806,7 +40659,7 @@
         <v>0</v>
       </c>
       <c r="D433" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E433" s="20"/>
       <c r="F433" s="20"/>
@@ -40826,7 +40679,7 @@
         <v>0</v>
       </c>
       <c r="N433" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O433" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40857,7 +40710,7 @@
         <v>0</v>
       </c>
       <c r="D434" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E434" s="20"/>
       <c r="F434" s="20"/>
@@ -40877,7 +40730,7 @@
         <v>0</v>
       </c>
       <c r="N434" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O434" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40908,7 +40761,7 @@
         <v>0</v>
       </c>
       <c r="D435" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E435" s="20"/>
       <c r="F435" s="20"/>
@@ -40928,7 +40781,7 @@
         <v>0</v>
       </c>
       <c r="N435" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O435" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40959,7 +40812,7 @@
         <v>0</v>
       </c>
       <c r="D436" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E436" s="20"/>
       <c r="F436" s="20"/>
@@ -40979,7 +40832,7 @@
         <v>0</v>
       </c>
       <c r="N436" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O436" s="20" t="str">
         <f t="shared" si="25"/>
@@ -42201,7 +42054,7 @@
         <v>129</v>
       </c>
       <c r="M459" s="20" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="N459" s="20">
         <v>30</v>
@@ -42216,13 +42069,15 @@
       </c>
       <c r="Q459" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="R459" s="20" t="str">
         <f t="shared" si="32"/>
         <v>Yes</v>
       </c>
-      <c r="S459" s="23"/>
+      <c r="S459" s="23" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="460" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="20" t="s">
@@ -44964,7 +44819,7 @@
         <v>Yes</v>
       </c>
       <c r="S508" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="509" spans="1:19" x14ac:dyDescent="0.25">
@@ -47136,7 +46991,7 @@
         <v>0</v>
       </c>
       <c r="N547" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O547" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47189,7 +47044,7 @@
         <v>0</v>
       </c>
       <c r="N548" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O548" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47242,7 +47097,7 @@
         <v>0</v>
       </c>
       <c r="N549" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O549" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47295,7 +47150,7 @@
         <v>0</v>
       </c>
       <c r="N550" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O550" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47348,7 +47203,7 @@
         <v>0</v>
       </c>
       <c r="N551" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O551" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47520,7 +47375,7 @@
         <v>0</v>
       </c>
       <c r="D555" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E555" s="12"/>
       <c r="F555" s="12"/>
@@ -47616,7 +47471,7 @@
         <v>0</v>
       </c>
       <c r="D557" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E557" s="12"/>
       <c r="F557" s="12"/>
@@ -47636,7 +47491,7 @@
         <v>0</v>
       </c>
       <c r="N557" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O557" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47685,7 +47540,7 @@
         <v>0</v>
       </c>
       <c r="N558" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O558" s="20" t="str">
         <f t="shared" si="33"/>
@@ -48620,19 +48475,19 @@
       <c r="M580" s="1"/>
       <c r="N580" s="1"/>
       <c r="O580" s="20" t="str">
-        <f t="shared" ref="O580:O601" si="37">IF(A580=K580,"Yes","No")</f>
+        <f t="shared" ref="O580:O600" si="37">IF(A580=K580,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="P580" s="20" t="str">
-        <f t="shared" ref="P580:P601" si="38">IF(B580=L580,"Yes","No")</f>
+        <f t="shared" ref="P580:P600" si="38">IF(B580=L580,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="Q580" s="20" t="str">
-        <f t="shared" ref="Q580:Q601" si="39">IF(C580=M580,"Yes","No")</f>
+        <f t="shared" ref="Q580:Q600" si="39">IF(C580=M580,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="R580" s="20" t="str">
-        <f t="shared" ref="R580:R601" si="40">IF(D580=N580,"Yes","No")</f>
+        <f t="shared" ref="R580:R600" si="40">IF(D580=N580,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="S580" s="18"/>
@@ -49602,34 +49457,50 @@
         <v>Yes</v>
       </c>
       <c r="S599" s="25" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="T599" s="27"/>
     </row>
     <row r="600" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="57" t="s">
+      <c r="A600" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="B600" s="57" t="s">
+      <c r="B600" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C600" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D600" s="57"/>
-      <c r="E600" s="58"/>
-      <c r="F600" s="58"/>
-      <c r="G600" s="58"/>
-      <c r="H600" s="58"/>
+      <c r="C600" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D600" s="58"/>
+      <c r="E600" s="58" t="s">
+        <v>777</v>
+      </c>
+      <c r="F600" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G600" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H600" s="58" t="s">
+        <v>4</v>
+      </c>
       <c r="I600" s="58"/>
-      <c r="J600" s="58"/>
-      <c r="K600" s="58"/>
-      <c r="L600" s="58"/>
-      <c r="M600" s="58"/>
+      <c r="J600" s="58" t="s">
+        <v>777</v>
+      </c>
+      <c r="K600" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="L600" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="M600" s="58" t="s">
+        <v>4</v>
+      </c>
       <c r="N600" s="58"/>
       <c r="O600" s="20" t="str">
         <f t="shared" si="37"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P600" s="20" t="str">
         <f t="shared" si="38"/>
@@ -49637,92 +49508,37 @@
       </c>
       <c r="Q600" s="20" t="str">
         <f t="shared" si="39"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R600" s="20" t="str">
         <f t="shared" si="40"/>
         <v>Yes</v>
       </c>
       <c r="S600" s="25" t="s">
-        <v>800</v>
+        <v>848</v>
       </c>
       <c r="T600" s="27"/>
     </row>
-    <row r="601" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="58" t="s">
-        <v>450</v>
-      </c>
-      <c r="B601" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="C601" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D601" s="58"/>
-      <c r="E601" s="58" t="s">
-        <v>777</v>
-      </c>
-      <c r="F601" s="58" t="s">
-        <v>450</v>
-      </c>
-      <c r="G601" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="H601" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I601" s="58"/>
-      <c r="J601" s="58" t="s">
-        <v>777</v>
-      </c>
-      <c r="K601" s="58" t="s">
-        <v>450</v>
-      </c>
-      <c r="L601" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="M601" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="N601" s="58"/>
-      <c r="O601" s="20" t="str">
-        <f t="shared" si="37"/>
-        <v>Yes</v>
-      </c>
-      <c r="P601" s="20" t="str">
-        <f t="shared" si="38"/>
-        <v>No</v>
-      </c>
-      <c r="Q601" s="20" t="str">
-        <f t="shared" si="39"/>
-        <v>Yes</v>
-      </c>
-      <c r="R601" s="20" t="str">
-        <f t="shared" si="40"/>
-        <v>Yes</v>
-      </c>
-      <c r="T601" s="27"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:T601"/>
+  <autoFilter ref="A2:T600"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="O602:O1048576 N3:N26 N442:N455 N83:N94 N103:N114 N117:N131 N160:N226 N134:N151 N231:N259 N303:N320 N322:N337 N342:N391 N262:N276 N462:N551 N559:N586 O2:R601">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
+  <conditionalFormatting sqref="O601:O1048576 N3:N26 N442:N455 N83:N94 N103:N114 N117:N131 N160:N226 N134:N151 N231:N259 N303:N320 N322:N337 N342:N391 N262:N276 N462:N551 N559:N586 O2:R600">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27:N29 N291:N299 N602:N1048576 N260:N261">
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
+  <conditionalFormatting sqref="N27:N29 N291:N299 N601:N1048576 N260:N261">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49738,10 +49554,10 @@
   </sheetPr>
   <dimension ref="A1:T251"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3:R251"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49981,7 +49797,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>776</v>
@@ -49996,7 +49812,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>776</v>
@@ -50011,7 +49827,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O5" s="20" t="str">
         <f t="shared" si="1"/>
@@ -50042,7 +49858,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>776</v>
@@ -50057,7 +49873,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>776</v>
@@ -50072,7 +49888,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O6" s="20" t="str">
         <f t="shared" si="1"/>
@@ -50103,7 +49919,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>776</v>
@@ -50118,7 +49934,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>776</v>
@@ -50133,7 +49949,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O7" s="20" t="str">
         <f t="shared" si="1"/>
@@ -50164,7 +49980,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>776</v>
@@ -50179,7 +49995,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>776</v>
@@ -50194,7 +50010,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O8" s="20" t="str">
         <f t="shared" si="1"/>
@@ -50945,7 +50761,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>776</v>
@@ -50960,7 +50776,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O22" s="20" t="str">
         <f t="shared" si="1"/>
@@ -51124,7 +50940,7 @@
         <v>Yes</v>
       </c>
       <c r="S25" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -53421,7 +53237,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>777</v>
@@ -53449,7 +53265,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O69" s="20" t="str">
         <f t="shared" si="5"/>
@@ -54435,7 +54251,9 @@
       <c r="H87" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I87" s="20"/>
+      <c r="I87" s="20">
+        <v>38</v>
+      </c>
       <c r="J87" s="20" t="s">
         <v>777</v>
       </c>
@@ -54468,7 +54286,7 @@
         <v>Yes</v>
       </c>
       <c r="S87" s="20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -55148,7 +54966,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>777</v>
@@ -55163,7 +54981,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J100" s="20" t="s">
         <v>777</v>
@@ -55178,7 +54996,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O100" s="20" t="str">
         <f t="shared" si="5"/>
@@ -55209,7 +55027,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>777</v>
@@ -55224,7 +55042,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J101" s="20" t="s">
         <v>777</v>
@@ -55239,7 +55057,7 @@
         <v>0</v>
       </c>
       <c r="N101" s="20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O101" s="20" t="str">
         <f t="shared" si="5"/>
@@ -55527,7 +55345,7 @@
         <v>Yes</v>
       </c>
       <c r="S106" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="107" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -60379,7 +60197,7 @@
         <v>0</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E202" s="20" t="s">
         <v>777</v>
@@ -60394,7 +60212,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J202" s="20" t="s">
         <v>777</v>
@@ -60409,7 +60227,7 @@
         <v>0</v>
       </c>
       <c r="N202" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O202" s="20" t="str">
         <f t="shared" si="13"/>
@@ -61062,7 +60880,7 @@
         <v>No</v>
       </c>
       <c r="S213" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="T213" s="20"/>
     </row>
@@ -61192,7 +61010,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J216" s="20" t="s">
         <v>777</v>
@@ -61207,7 +61025,7 @@
         <v>0</v>
       </c>
       <c r="N216" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O216" s="20" t="str">
         <f t="shared" si="13"/>
@@ -62250,7 +62068,7 @@
         <v>Yes</v>
       </c>
       <c r="S236" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="T236" s="23"/>
     </row>
@@ -63027,27 +62845,27 @@
     <mergeCell ref="O1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="M252:N1048576 M65:N117 M3:N4 M30:N41 M46:N59 M123:N125 M141:N152 M9:N21 M5:M8 M23:N25 M22 M130:M140 M126:M128 M168:N196 O2:R251">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M197:M229">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:I101">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M243:N251">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -74545,7 +74363,7 @@
         <v>Yes</v>
       </c>
       <c r="S245" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="T245" s="31"/>
     </row>
@@ -74649,17 +74467,17 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:N244 M249:N1048576">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:R1">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R248">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -74675,7 +74493,7 @@
   </sheetPr>
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
@@ -75803,7 +75621,7 @@
         <v>No</v>
       </c>
       <c r="S20" s="48" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -75866,7 +75684,7 @@
         <v>No</v>
       </c>
       <c r="S21" s="48" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -75929,7 +75747,7 @@
         <v>No</v>
       </c>
       <c r="S22" s="48" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -76312,7 +76130,7 @@
         <v>Yes</v>
       </c>
       <c r="S29" s="48" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -76365,7 +76183,7 @@
         <v>Yes</v>
       </c>
       <c r="S30" s="48" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -76418,7 +76236,7 @@
         <v>Yes</v>
       </c>
       <c r="S31" s="48" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -77469,7 +77287,7 @@
         <v>No</v>
       </c>
       <c r="S50" s="37" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="51" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -78504,12 +78322,12 @@
     <mergeCell ref="O1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:N44 M49:N1048576 O2:R69">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -82416,17 +82234,17 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="M7:N42 M77:N1048576 M59:N63 M43:M58 M70:N70 M64:M69 O2:R76">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:R1">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76:N76 M71:M75">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -82492,7 +82310,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -82532,7 +82350,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -82546,7 +82364,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -82561,7 +82379,7 @@
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -82648,7 +82466,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E14" s="30"/>
     </row>
@@ -82663,7 +82481,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E15" s="30"/>
     </row>
@@ -82679,7 +82497,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -82756,7 +82574,7 @@
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -82812,7 +82630,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -82959,7 +82777,7 @@
         <v>25</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -83026,7 +82844,7 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -83079,7 +82897,7 @@
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -83094,7 +82912,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -83183,7 +83001,7 @@
       </c>
       <c r="D54" s="62"/>
       <c r="E54" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -83360,7 +83178,7 @@
       </c>
       <c r="D67" s="58"/>
       <c r="E67" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -83439,7 +83257,7 @@
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -83492,7 +83310,7 @@
       </c>
       <c r="D77" s="48"/>
       <c r="E77" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -83557,7 +83375,7 @@
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -83622,7 +83440,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -83687,7 +83505,7 @@
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -83752,7 +83570,7 @@
       </c>
       <c r="D97" s="20"/>
       <c r="E97" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -83911,30 +83729,30 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="90"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="85"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -83942,13 +83760,13 @@
         <v>788</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -83957,20 +83775,20 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="85"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -84090,6 +83908,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <IM_x0020_Back_x002d_Up xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Rocco Morgante</IM_x0020_Back_x002d_Up>
+    <IM xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Qi-Fang</IM>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D17CDF952BBCB44900ABCA2CDBD5B8D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d8f50d687aeb68c4c89ec510a64d2db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bae2312d-cea4-4f39-b982-bee6be9b0e7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e065488d58007693a9b3776e11604c3a" ns2:_="">
     <xsd:import namespace="bae2312d-cea4-4f39-b982-bee6be9b0e7d"/>
@@ -84185,35 +84031,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <IM_x0020_Back_x002d_Up xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Rocco Morgante</IM_x0020_Back_x002d_Up>
-    <IM xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Qi-Fang</IM>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B403FDD-90A4-47B1-A942-4A38C16BD3C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2049F0C-A836-4632-BA48-7EFE0C81264E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E89AF7A-A852-4882-851B-931D45708D9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bae2312d-cea4-4f39-b982-bee6be9b0e7d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD109BD-D92A-4FCB-A6F7-B93227E955A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -84228,29 +84071,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E89AF7A-A852-4882-851B-931D45708D9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bae2312d-cea4-4f39-b982-bee6be9b0e7d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2049F0C-A836-4632-BA48-7EFE0C81264E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B403FDD-90A4-47B1-A942-4A38C16BD3C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DataMappingTool/src/documents/ECCOK_Data Mapping_v0.03.xlsx
+++ b/DataMappingTool/src/documents/ECCOK_Data Mapping_v0.03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1455" windowWidth="15600" windowHeight="6840" tabRatio="637" activeTab="3"/>
+    <workbookView xWindow="720" yWindow="1455" windowWidth="15600" windowHeight="6840" tabRatio="637" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13869" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13885" uniqueCount="850">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2427,12 +2427,6 @@
     <t>description…</t>
   </si>
   <si>
-    <t>v0.02,can be removed, since there is no record….</t>
-  </si>
-  <si>
-    <t>v0.02,add this filed to new table, it will be always 'OK' from OK's database.</t>
-  </si>
-  <si>
     <t>v0.02, can be migrated to insert_date.</t>
   </si>
   <si>
@@ -2578,6 +2572,15 @@
   </si>
   <si>
     <t>v0.03, migrate the end_date to mod_date.</t>
+  </si>
+  <si>
+    <t>VACHAR2</t>
+  </si>
+  <si>
+    <t>v0.03 add this field, since this exists in almost all ECC States.</t>
+  </si>
+  <si>
+    <t>v0.03 , changed to varchar2</t>
   </si>
 </sst>
 </file>
@@ -3654,7 +3657,7 @@
         <v>792</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3662,7 +3665,7 @@
         <v>781</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4690,7 +4693,7 @@
         <v>Yes</v>
       </c>
       <c r="S19" s="28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="T19" s="23"/>
     </row>
@@ -4815,7 +4818,7 @@
         <v>Yes</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -5469,7 +5472,7 @@
         <v>Yes</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -5532,7 +5535,7 @@
         <v>Yes</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -5595,7 +5598,7 @@
         <v>Yes</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -5658,7 +5661,7 @@
         <v>Yes</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -5721,7 +5724,7 @@
         <v>Yes</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -5937,7 +5940,7 @@
         <v>Yes</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -6000,7 +6003,7 @@
         <v>Yes</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -6063,7 +6066,7 @@
         <v>Yes</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -7397,7 +7400,7 @@
         <v>Yes</v>
       </c>
       <c r="S70" s="12" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="T70" s="23"/>
     </row>
@@ -8249,7 +8252,7 @@
         <v>Yes</v>
       </c>
       <c r="S87" s="20" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="T87" s="23"/>
     </row>
@@ -8575,7 +8578,7 @@
         <v>Yes</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -9723,7 +9726,7 @@
         <v>Yes</v>
       </c>
       <c r="S118" s="20" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="T118" s="23"/>
     </row>
@@ -10662,7 +10665,7 @@
         <v>Yes</v>
       </c>
       <c r="S137" s="53" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="T137" s="72"/>
     </row>
@@ -10716,7 +10719,7 @@
         <v>Yes</v>
       </c>
       <c r="S138" s="53" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="T138" s="72"/>
     </row>
@@ -11016,7 +11019,7 @@
         <v>Yes</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
@@ -11527,7 +11530,7 @@
         <v>Yes</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
@@ -13595,7 +13598,7 @@
         <v>Yes</v>
       </c>
       <c r="S196" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
@@ -14126,7 +14129,7 @@
         <v>Yes</v>
       </c>
       <c r="S206" s="20" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="T206" s="23"/>
     </row>
@@ -14309,7 +14312,7 @@
         <v>Yes</v>
       </c>
       <c r="S212" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
@@ -14704,7 +14707,7 @@
         <v>Yes</v>
       </c>
       <c r="S221" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
@@ -17247,7 +17250,7 @@
         <v>129</v>
       </c>
       <c r="M274" s="20" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="N274" s="20">
         <v>30</v>
@@ -17269,7 +17272,7 @@
         <v>Yes</v>
       </c>
       <c r="S274" s="20" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="275" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -17498,10 +17501,10 @@
   </sheetPr>
   <dimension ref="A1:T600"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
-      <selection pane="bottomLeft" activeCell="A593" sqref="A593"/>
+      <selection pane="bottomLeft" activeCell="S153" sqref="S153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18910,7 +18913,7 @@
         <v>Yes</v>
       </c>
       <c r="S25" s="23" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -19847,7 +19850,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E45" s="66"/>
       <c r="F45" s="66"/>
@@ -19867,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O45" s="20" t="str">
         <f t="shared" si="1"/>
@@ -20051,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
@@ -20071,7 +20074,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O49" s="20" t="str">
         <f t="shared" si="1"/>
@@ -20204,7 +20207,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
@@ -20224,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O52" s="20" t="str">
         <f t="shared" si="1"/>
@@ -21020,7 +21023,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E68" s="66"/>
       <c r="F68" s="66"/>
@@ -21040,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O68" s="20" t="str">
         <f t="shared" ref="O68:O131" si="5">IF(A68=K68,"Yes","No")</f>
@@ -21071,7 +21074,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
@@ -21091,7 +21094,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O69" s="20" t="str">
         <f t="shared" si="5"/>
@@ -21122,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
@@ -21142,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O70" s="20" t="str">
         <f t="shared" si="5"/>
@@ -21173,7 +21176,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
@@ -21193,7 +21196,7 @@
         <v>0</v>
       </c>
       <c r="N71" s="66" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O71" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22431,7 +22434,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>777</v>
@@ -22446,7 +22449,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J95" s="20" t="s">
         <v>777</v>
@@ -22461,7 +22464,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O95" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22492,7 +22495,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>777</v>
@@ -22507,7 +22510,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J96" s="20" t="s">
         <v>777</v>
@@ -22522,7 +22525,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O96" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22562,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J97" s="20" t="s">
         <v>777</v>
@@ -22577,7 +22580,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O97" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22617,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J98" s="20" t="s">
         <v>777</v>
@@ -22632,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="N98" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O98" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22672,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J99" s="20" t="s">
         <v>777</v>
@@ -22687,7 +22690,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O99" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22727,7 +22730,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J100" s="20" t="s">
         <v>777</v>
@@ -22742,7 +22745,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O100" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22786,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J101" s="20" t="s">
         <v>777</v>
@@ -22801,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="N101" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O101" s="20" t="str">
         <f t="shared" si="5"/>
@@ -22845,7 +22848,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J102" s="20" t="s">
         <v>777</v>
@@ -22860,7 +22863,7 @@
         <v>0</v>
       </c>
       <c r="N102" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O102" s="20" t="str">
         <f t="shared" si="5"/>
@@ -23295,7 +23298,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J110" s="20" t="s">
         <v>777</v>
@@ -23327,7 +23330,7 @@
         <v>Yes</v>
       </c>
       <c r="S110" s="23" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="111" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -23380,7 +23383,7 @@
         <v>Yes</v>
       </c>
       <c r="S111" s="23" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -23576,7 +23579,7 @@
         <v>237</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>145</v>
+        <v>847</v>
       </c>
       <c r="N115" s="20">
         <v>3</v>
@@ -23591,13 +23594,15 @@
       </c>
       <c r="Q115" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="R115" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="S115" s="23"/>
+      <c r="S115" s="23" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="116" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
@@ -23631,7 +23636,7 @@
         <v>327</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>145</v>
+        <v>847</v>
       </c>
       <c r="N116" s="20">
         <v>2</v>
@@ -23646,13 +23651,15 @@
       </c>
       <c r="Q116" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="R116" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="S116" s="23"/>
+      <c r="S116" s="23" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -24492,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>777</v>
@@ -24507,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>777</v>
@@ -24551,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>777</v>
@@ -24566,7 +24573,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>777</v>
@@ -24619,7 +24626,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>777</v>
@@ -24672,7 +24679,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>777</v>
@@ -24725,7 +24732,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>777</v>
@@ -24778,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>777</v>
@@ -24835,7 +24842,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>777</v>
@@ -24892,7 +24899,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>777</v>
@@ -25340,7 +25347,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>777</v>
@@ -25617,7 +25624,7 @@
         <v>237</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="N152" s="1">
         <v>3</v>
@@ -25632,13 +25639,15 @@
       </c>
       <c r="Q152" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="R152" s="20" t="str">
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="S152" s="18"/>
+      <c r="S152" s="18" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -25672,7 +25681,7 @@
         <v>327</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="N153" s="1">
         <v>2</v>
@@ -25687,13 +25696,15 @@
       </c>
       <c r="Q153" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="R153" s="20" t="str">
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="S153" s="18"/>
+      <c r="S153" s="18" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="154" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
@@ -25741,7 +25752,7 @@
         <v>Yes</v>
       </c>
       <c r="S154" s="23" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="155" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -26143,7 +26154,7 @@
         <v>Yes</v>
       </c>
       <c r="S162" s="18" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -26196,7 +26207,7 @@
         <v>Yes</v>
       </c>
       <c r="S163" s="18" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -26219,7 +26230,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>777</v>
@@ -26251,7 +26262,7 @@
         <v>Yes</v>
       </c>
       <c r="S164" s="18" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
@@ -32416,7 +32427,7 @@
         <v>Yes</v>
       </c>
       <c r="S277" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="278" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -32729,7 +32740,7 @@
         <v>0</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -32749,7 +32760,7 @@
         <v>0</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O285" s="20" t="str">
         <f t="shared" si="17"/>
@@ -32780,7 +32791,7 @@
         <v>0</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -32800,7 +32811,7 @@
         <v>0</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="O286" s="20" t="str">
         <f t="shared" si="17"/>
@@ -32831,7 +32842,7 @@
         <v>0</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -32851,7 +32862,7 @@
         <v>0</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O287" s="20" t="str">
         <f t="shared" si="17"/>
@@ -33559,7 +33570,7 @@
         <v>Yes</v>
       </c>
       <c r="S300" s="69" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.25">
@@ -34036,7 +34047,7 @@
         <v>Yes</v>
       </c>
       <c r="S309" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.25">
@@ -37137,7 +37148,7 @@
         <v>Yes</v>
       </c>
       <c r="S366" s="23" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="367" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -39231,7 +39242,7 @@
         <v>0</v>
       </c>
       <c r="D405" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E405" s="20"/>
       <c r="F405" s="20"/>
@@ -39251,7 +39262,7 @@
         <v>0</v>
       </c>
       <c r="N405" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O405" s="20" t="str">
         <f t="shared" si="25"/>
@@ -39435,7 +39446,7 @@
         <v>0</v>
       </c>
       <c r="D409" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E409" s="20"/>
       <c r="F409" s="20"/>
@@ -39455,7 +39466,7 @@
         <v>0</v>
       </c>
       <c r="N409" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O409" s="20" t="str">
         <f t="shared" si="25"/>
@@ -39588,7 +39599,7 @@
         <v>0</v>
       </c>
       <c r="D412" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E412" s="20"/>
       <c r="F412" s="20"/>
@@ -39608,7 +39619,7 @@
         <v>0</v>
       </c>
       <c r="N412" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O412" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40404,7 +40415,7 @@
         <v>0</v>
       </c>
       <c r="D428" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E428" s="20"/>
       <c r="F428" s="20"/>
@@ -40424,7 +40435,7 @@
         <v>0</v>
       </c>
       <c r="N428" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O428" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40455,7 +40466,7 @@
         <v>0</v>
       </c>
       <c r="D429" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E429" s="20"/>
       <c r="F429" s="20"/>
@@ -40475,7 +40486,7 @@
         <v>0</v>
       </c>
       <c r="N429" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O429" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40506,7 +40517,7 @@
         <v>0</v>
       </c>
       <c r="D430" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E430" s="20"/>
       <c r="F430" s="20"/>
@@ -40526,7 +40537,7 @@
         <v>0</v>
       </c>
       <c r="N430" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O430" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40557,7 +40568,7 @@
         <v>0</v>
       </c>
       <c r="D431" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E431" s="20"/>
       <c r="F431" s="20"/>
@@ -40577,7 +40588,7 @@
         <v>0</v>
       </c>
       <c r="N431" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O431" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40659,7 +40670,7 @@
         <v>0</v>
       </c>
       <c r="D433" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E433" s="20"/>
       <c r="F433" s="20"/>
@@ -40679,7 +40690,7 @@
         <v>0</v>
       </c>
       <c r="N433" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O433" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40710,7 +40721,7 @@
         <v>0</v>
       </c>
       <c r="D434" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E434" s="20"/>
       <c r="F434" s="20"/>
@@ -40730,7 +40741,7 @@
         <v>0</v>
       </c>
       <c r="N434" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O434" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40761,7 +40772,7 @@
         <v>0</v>
       </c>
       <c r="D435" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E435" s="20"/>
       <c r="F435" s="20"/>
@@ -40781,7 +40792,7 @@
         <v>0</v>
       </c>
       <c r="N435" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O435" s="20" t="str">
         <f t="shared" si="25"/>
@@ -40812,7 +40823,7 @@
         <v>0</v>
       </c>
       <c r="D436" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E436" s="20"/>
       <c r="F436" s="20"/>
@@ -40832,7 +40843,7 @@
         <v>0</v>
       </c>
       <c r="N436" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O436" s="20" t="str">
         <f t="shared" si="25"/>
@@ -42076,7 +42087,7 @@
         <v>Yes</v>
       </c>
       <c r="S459" s="23" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="460" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -44819,7 +44830,7 @@
         <v>Yes</v>
       </c>
       <c r="S508" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="509" spans="1:19" x14ac:dyDescent="0.25">
@@ -46991,7 +47002,7 @@
         <v>0</v>
       </c>
       <c r="N547" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O547" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47044,7 +47055,7 @@
         <v>0</v>
       </c>
       <c r="N548" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O548" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47097,7 +47108,7 @@
         <v>0</v>
       </c>
       <c r="N549" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O549" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47150,7 +47161,7 @@
         <v>0</v>
       </c>
       <c r="N550" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O550" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47203,7 +47214,7 @@
         <v>0</v>
       </c>
       <c r="N551" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O551" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47375,7 +47386,7 @@
         <v>0</v>
       </c>
       <c r="D555" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E555" s="12"/>
       <c r="F555" s="12"/>
@@ -47471,7 +47482,7 @@
         <v>0</v>
       </c>
       <c r="D557" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E557" s="12"/>
       <c r="F557" s="12"/>
@@ -47491,7 +47502,7 @@
         <v>0</v>
       </c>
       <c r="N557" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O557" s="20" t="str">
         <f t="shared" si="33"/>
@@ -47540,7 +47551,7 @@
         <v>0</v>
       </c>
       <c r="N558" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O558" s="20" t="str">
         <f t="shared" si="33"/>
@@ -49095,16 +49106,16 @@
       <c r="T592" s="27"/>
     </row>
     <row r="593" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="57" t="s">
+      <c r="A593" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="B593" s="57" t="s">
+      <c r="B593" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="C593" s="57" t="s">
+      <c r="C593" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D593" s="57">
+      <c r="D593" s="58">
         <v>50</v>
       </c>
       <c r="E593" s="58" t="s">
@@ -49117,17 +49128,25 @@
       <c r="J593" s="58" t="s">
         <v>777</v>
       </c>
-      <c r="K593" s="58"/>
-      <c r="L593" s="58"/>
-      <c r="M593" s="58"/>
-      <c r="N593" s="58"/>
+      <c r="K593" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="L593" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="M593" s="58" t="s">
+        <v>847</v>
+      </c>
+      <c r="N593" s="58">
+        <v>50</v>
+      </c>
       <c r="O593" s="20" t="str">
         <f t="shared" si="37"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P593" s="20" t="str">
         <f t="shared" si="38"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="Q593" s="20" t="str">
         <f t="shared" si="39"/>
@@ -49135,24 +49154,24 @@
       </c>
       <c r="R593" s="20" t="str">
         <f t="shared" si="40"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="S593" s="25" t="s">
-        <v>798</v>
+        <v>848</v>
       </c>
       <c r="T593" s="27"/>
     </row>
     <row r="594" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="57" t="s">
+      <c r="A594" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="B594" s="57" t="s">
+      <c r="B594" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="C594" s="57" t="s">
+      <c r="C594" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D594" s="57">
+      <c r="D594" s="58">
         <v>50</v>
       </c>
       <c r="E594" s="58" t="s">
@@ -49165,17 +49184,25 @@
       <c r="J594" s="58" t="s">
         <v>777</v>
       </c>
-      <c r="K594" s="58"/>
-      <c r="L594" s="58"/>
-      <c r="M594" s="58"/>
-      <c r="N594" s="58"/>
+      <c r="K594" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="L594" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="M594" s="58" t="s">
+        <v>847</v>
+      </c>
+      <c r="N594" s="58">
+        <v>50</v>
+      </c>
       <c r="O594" s="20" t="str">
         <f t="shared" si="37"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P594" s="20" t="str">
         <f t="shared" si="38"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="Q594" s="20" t="str">
         <f t="shared" si="39"/>
@@ -49183,24 +49210,24 @@
       </c>
       <c r="R594" s="20" t="str">
         <f t="shared" si="40"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="S594" s="25" t="s">
-        <v>798</v>
+        <v>848</v>
       </c>
       <c r="T594" s="27"/>
     </row>
     <row r="595" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="57" t="s">
+      <c r="A595" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="B595" s="57" t="s">
+      <c r="B595" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="C595" s="57" t="s">
+      <c r="C595" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D595" s="25">
+      <c r="D595" s="58">
         <v>30</v>
       </c>
       <c r="E595" s="58" t="s">
@@ -49213,17 +49240,25 @@
       <c r="J595" s="58" t="s">
         <v>777</v>
       </c>
-      <c r="K595" s="58"/>
-      <c r="L595" s="58"/>
-      <c r="M595" s="58"/>
-      <c r="N595" s="58"/>
+      <c r="K595" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="L595" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="M595" s="58" t="s">
+        <v>847</v>
+      </c>
+      <c r="N595" s="58">
+        <v>30</v>
+      </c>
       <c r="O595" s="20" t="str">
         <f t="shared" si="37"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P595" s="20" t="str">
         <f t="shared" si="38"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="Q595" s="20" t="str">
         <f t="shared" si="39"/>
@@ -49231,10 +49266,10 @@
       </c>
       <c r="R595" s="20" t="str">
         <f t="shared" si="40"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="S595" s="25" t="s">
-        <v>798</v>
+        <v>848</v>
       </c>
       <c r="T595" s="27"/>
     </row>
@@ -49268,7 +49303,7 @@
         <v>177</v>
       </c>
       <c r="M596" s="58" t="s">
-        <v>145</v>
+        <v>847</v>
       </c>
       <c r="N596" s="58">
         <v>2</v>
@@ -49283,28 +49318,28 @@
       </c>
       <c r="Q596" s="20" t="str">
         <f t="shared" si="39"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="R596" s="20" t="str">
         <f t="shared" si="40"/>
         <v>Yes</v>
       </c>
       <c r="S596" s="25" t="s">
-        <v>799</v>
+        <v>848</v>
       </c>
       <c r="T596" s="27"/>
     </row>
     <row r="597" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="57" t="s">
+      <c r="A597" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="B597" s="57" t="s">
+      <c r="B597" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="C597" s="57" t="s">
+      <c r="C597" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D597" s="25">
+      <c r="D597" s="58">
         <v>9</v>
       </c>
       <c r="E597" s="58" t="s">
@@ -49317,17 +49352,25 @@
       <c r="J597" s="58" t="s">
         <v>777</v>
       </c>
-      <c r="K597" s="58"/>
-      <c r="L597" s="58"/>
-      <c r="M597" s="58"/>
-      <c r="N597" s="58"/>
+      <c r="K597" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="L597" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="M597" s="58" t="s">
+        <v>847</v>
+      </c>
+      <c r="N597" s="58">
+        <v>9</v>
+      </c>
       <c r="O597" s="20" t="str">
         <f t="shared" si="37"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="P597" s="20" t="str">
         <f t="shared" si="38"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="Q597" s="20" t="str">
         <f t="shared" si="39"/>
@@ -49335,10 +49378,10 @@
       </c>
       <c r="R597" s="20" t="str">
         <f t="shared" si="40"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="S597" s="25" t="s">
-        <v>798</v>
+        <v>848</v>
       </c>
       <c r="T597" s="27"/>
     </row>
@@ -49457,7 +49500,7 @@
         <v>Yes</v>
       </c>
       <c r="S599" s="25" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="T599" s="27"/>
     </row>
@@ -49515,7 +49558,7 @@
         <v>Yes</v>
       </c>
       <c r="S600" s="25" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="T600" s="27"/>
     </row>
@@ -49554,8 +49597,8 @@
   </sheetPr>
   <dimension ref="A1:T251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
       <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
@@ -49797,7 +49840,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>776</v>
@@ -49812,7 +49855,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>776</v>
@@ -49827,7 +49870,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="O5" s="20" t="str">
         <f t="shared" si="1"/>
@@ -49858,7 +49901,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>776</v>
@@ -49873,7 +49916,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>776</v>
@@ -49888,7 +49931,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O6" s="20" t="str">
         <f t="shared" si="1"/>
@@ -49919,7 +49962,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>776</v>
@@ -49934,7 +49977,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>776</v>
@@ -49949,7 +49992,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="O7" s="20" t="str">
         <f t="shared" si="1"/>
@@ -49980,7 +50023,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>776</v>
@@ -49995,7 +50038,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>776</v>
@@ -50010,7 +50053,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="O8" s="20" t="str">
         <f t="shared" si="1"/>
@@ -50761,7 +50804,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>776</v>
@@ -50776,7 +50819,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="O22" s="20" t="str">
         <f t="shared" si="1"/>
@@ -50940,7 +50983,7 @@
         <v>Yes</v>
       </c>
       <c r="S25" s="20" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -53237,7 +53280,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>777</v>
@@ -53265,7 +53308,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O69" s="20" t="str">
         <f t="shared" si="5"/>
@@ -54286,7 +54329,7 @@
         <v>Yes</v>
       </c>
       <c r="S87" s="20" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -54966,7 +55009,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>777</v>
@@ -54981,7 +55024,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J100" s="20" t="s">
         <v>777</v>
@@ -54996,7 +55039,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O100" s="20" t="str">
         <f t="shared" si="5"/>
@@ -55027,7 +55070,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>777</v>
@@ -55042,7 +55085,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J101" s="20" t="s">
         <v>777</v>
@@ -55057,7 +55100,7 @@
         <v>0</v>
       </c>
       <c r="N101" s="20" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="O101" s="20" t="str">
         <f t="shared" si="5"/>
@@ -55345,7 +55388,7 @@
         <v>Yes</v>
       </c>
       <c r="S106" s="20" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="107" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -60197,7 +60240,7 @@
         <v>0</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E202" s="20" t="s">
         <v>777</v>
@@ -60212,7 +60255,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="20" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J202" s="20" t="s">
         <v>777</v>
@@ -60227,7 +60270,7 @@
         <v>0</v>
       </c>
       <c r="N202" s="20" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="O202" s="20" t="str">
         <f t="shared" si="13"/>
@@ -60880,7 +60923,7 @@
         <v>No</v>
       </c>
       <c r="S213" s="20" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="T213" s="20"/>
     </row>
@@ -61010,7 +61053,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="20" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J216" s="20" t="s">
         <v>777</v>
@@ -61025,7 +61068,7 @@
         <v>0</v>
       </c>
       <c r="N216" s="20" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="O216" s="20" t="str">
         <f t="shared" si="13"/>
@@ -62068,7 +62111,7 @@
         <v>Yes</v>
       </c>
       <c r="S236" s="20" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="T236" s="23"/>
     </row>
@@ -74363,7 +74406,7 @@
         <v>Yes</v>
       </c>
       <c r="S245" s="30" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="T245" s="31"/>
     </row>
@@ -75621,7 +75664,7 @@
         <v>No</v>
       </c>
       <c r="S20" s="48" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -75684,7 +75727,7 @@
         <v>No</v>
       </c>
       <c r="S21" s="48" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -75747,7 +75790,7 @@
         <v>No</v>
       </c>
       <c r="S22" s="48" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -76130,7 +76173,7 @@
         <v>Yes</v>
       </c>
       <c r="S29" s="48" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -76183,7 +76226,7 @@
         <v>Yes</v>
       </c>
       <c r="S30" s="48" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="31" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -76236,7 +76279,7 @@
         <v>Yes</v>
       </c>
       <c r="S31" s="48" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -77287,7 +77330,7 @@
         <v>No</v>
       </c>
       <c r="S50" s="37" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="51" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -82310,7 +82353,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -82350,7 +82393,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -82364,7 +82407,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -82379,7 +82422,7 @@
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -82466,7 +82509,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E14" s="30"/>
     </row>
@@ -82481,7 +82524,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E15" s="30"/>
     </row>
@@ -82497,7 +82540,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -82574,7 +82617,7 @@
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -82630,7 +82673,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -82777,7 +82820,7 @@
         <v>25</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -82844,7 +82887,7 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -82897,7 +82940,7 @@
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -82912,7 +82955,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -83001,7 +83044,7 @@
       </c>
       <c r="D54" s="62"/>
       <c r="E54" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -83178,7 +83221,7 @@
       </c>
       <c r="D67" s="58"/>
       <c r="E67" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -83257,7 +83300,7 @@
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -83310,7 +83353,7 @@
       </c>
       <c r="D77" s="48"/>
       <c r="E77" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -83375,7 +83418,7 @@
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -83440,7 +83483,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -83505,7 +83548,7 @@
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -83570,7 +83613,7 @@
       </c>
       <c r="D97" s="20"/>
       <c r="E97" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -83729,30 +83772,30 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="90"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="85"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -83760,13 +83803,13 @@
         <v>788</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -83775,20 +83818,20 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="85"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -83908,34 +83951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <IM_x0020_Back_x002d_Up xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Rocco Morgante</IM_x0020_Back_x002d_Up>
-    <IM xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Qi-Fang</IM>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D17CDF952BBCB44900ABCA2CDBD5B8D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d8f50d687aeb68c4c89ec510a64d2db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bae2312d-cea4-4f39-b982-bee6be9b0e7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e065488d58007693a9b3776e11604c3a" ns2:_="">
     <xsd:import namespace="bae2312d-cea4-4f39-b982-bee6be9b0e7d"/>
@@ -84031,32 +84046,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B403FDD-90A4-47B1-A942-4A38C16BD3C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <IM_x0020_Back_x002d_Up xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Rocco Morgante</IM_x0020_Back_x002d_Up>
+    <IM xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Qi-Fang</IM>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2049F0C-A836-4632-BA48-7EFE0C81264E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E89AF7A-A852-4882-851B-931D45708D9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bae2312d-cea4-4f39-b982-bee6be9b0e7d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD109BD-D92A-4FCB-A6F7-B93227E955A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -84071,4 +84089,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E89AF7A-A852-4882-851B-931D45708D9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bae2312d-cea4-4f39-b982-bee6be9b0e7d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2049F0C-A836-4632-BA48-7EFE0C81264E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B403FDD-90A4-47B1-A942-4A38C16BD3C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>